--- a/legislator/property/output/normal/賴士葆_2011-11-23_財產申報表_tmp2bc41.xlsx
+++ b/legislator/property/output/normal/賴士葆_2011-11-23_財產申報表_tmp2bc41.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="93">
   <si>
     <t>土地坐落</t>
   </si>
@@ -193,6 +193,15 @@
     <t>total</t>
   </si>
   <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>legislator_name</t>
+  </si>
+  <si>
+    <t>legislator_id</t>
+  </si>
+  <si>
     <t>台化</t>
   </si>
   <si>
@@ -227,6 +236,9 @@
   </si>
   <si>
     <t>國泰建設</t>
+  </si>
+  <si>
+    <t>2011-11-23</t>
   </si>
   <si>
     <t>名稱</t>
@@ -1233,13 +1245,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>51</v>
       </c>
@@ -1258,13 +1270,22 @@
       <c r="G1" s="1" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1">
         <v>67</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>12</v>
@@ -1281,13 +1302,22 @@
       <c r="G2" s="2">
         <v>40</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="H2" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J2" s="2">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1">
         <v>68</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>12</v>
@@ -1304,13 +1334,22 @@
       <c r="G3" s="2">
         <v>500000</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="H3" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J3" s="2">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1">
         <v>69</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>12</v>
@@ -1327,13 +1366,22 @@
       <c r="G4" s="2">
         <v>30000</v>
       </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="H4" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J4" s="2">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1">
         <v>70</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>12</v>
@@ -1350,13 +1398,22 @@
       <c r="G5" s="2">
         <v>200000</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J5" s="2">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1">
         <v>71</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>12</v>
@@ -1373,13 +1430,22 @@
       <c r="G6" s="2">
         <v>435000</v>
       </c>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="H6" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J6" s="2">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1">
         <v>73</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>12</v>
@@ -1396,13 +1462,22 @@
       <c r="G7" s="2">
         <v>1810740</v>
       </c>
-    </row>
-    <row r="8" spans="1:7">
+      <c r="H7" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J7" s="2">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1">
         <v>74</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>12</v>
@@ -1419,13 +1494,22 @@
       <c r="G8" s="2">
         <v>200270</v>
       </c>
-    </row>
-    <row r="9" spans="1:7">
+      <c r="H8" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J8" s="2">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1">
         <v>75</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>12</v>
@@ -1442,13 +1526,22 @@
       <c r="G9" s="2">
         <v>609600</v>
       </c>
-    </row>
-    <row r="10" spans="1:7">
+      <c r="H9" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J9" s="2">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1">
         <v>76</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>12</v>
@@ -1465,13 +1558,22 @@
       <c r="G10" s="2">
         <v>782980</v>
       </c>
-    </row>
-    <row r="11" spans="1:7">
+      <c r="H10" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J10" s="2">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="1">
         <v>77</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>12</v>
@@ -1488,13 +1590,22 @@
       <c r="G11" s="2">
         <v>338950</v>
       </c>
-    </row>
-    <row r="12" spans="1:7">
+      <c r="H11" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J11" s="2">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="1">
         <v>78</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>12</v>
@@ -1511,13 +1622,22 @@
       <c r="G12" s="2">
         <v>240000</v>
       </c>
-    </row>
-    <row r="13" spans="1:7">
+      <c r="H12" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J12" s="2">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" s="1">
         <v>79</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>12</v>
@@ -1533,6 +1653,15 @@
       </c>
       <c r="G13" s="2">
         <v>8740</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J13" s="2">
+        <v>866</v>
       </c>
     </row>
   </sheetData>
@@ -1550,19 +1679,19 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -1570,16 +1699,16 @@
         <v>96</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="F2" s="2"/>
     </row>
@@ -1588,19 +1717,19 @@
         <v>97</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -1618,13 +1747,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1632,10 +1761,10 @@
         <v>103</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>11</v>
@@ -1646,10 +1775,10 @@
         <v>104</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>11</v>

--- a/legislator/property/output/normal/賴士葆_2011-11-23_財產申報表_tmp2bc41.xlsx
+++ b/legislator/property/output/normal/賴士葆_2011-11-23_財產申報表_tmp2bc41.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="95">
   <si>
     <t>土地坐落</t>
   </si>
@@ -193,6 +193,9 @@
     <t>total</t>
   </si>
   <si>
+    <t>property_category</t>
+  </si>
+  <si>
     <t>date</t>
   </si>
   <si>
@@ -236,6 +239,9 @@
   </si>
   <si>
     <t>國泰建設</t>
+  </si>
+  <si>
+    <t>stock</t>
   </si>
   <si>
     <t>2011-11-23</t>
@@ -1245,13 +1251,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>51</v>
       </c>
@@ -1279,13 +1285,16 @@
       <c r="J1" s="1" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="K1" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1">
         <v>67</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>12</v>
@@ -1303,21 +1312,24 @@
         <v>40</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="J2" s="2">
+        <v>74</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="K2" s="2">
         <v>866</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:11">
       <c r="A3" s="1">
         <v>68</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>12</v>
@@ -1335,21 +1347,24 @@
         <v>500000</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="J3" s="2">
+        <v>74</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="K3" s="2">
         <v>866</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:11">
       <c r="A4" s="1">
         <v>69</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>12</v>
@@ -1367,21 +1382,24 @@
         <v>30000</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="J4" s="2">
+        <v>74</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="K4" s="2">
         <v>866</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:11">
       <c r="A5" s="1">
         <v>70</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>12</v>
@@ -1399,21 +1417,24 @@
         <v>200000</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="J5" s="2">
+        <v>74</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="K5" s="2">
         <v>866</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:11">
       <c r="A6" s="1">
         <v>71</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>12</v>
@@ -1431,21 +1452,24 @@
         <v>435000</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="J6" s="2">
+        <v>74</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="K6" s="2">
         <v>866</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:11">
       <c r="A7" s="1">
         <v>73</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>12</v>
@@ -1463,21 +1487,24 @@
         <v>1810740</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="J7" s="2">
+        <v>74</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="K7" s="2">
         <v>866</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:11">
       <c r="A8" s="1">
         <v>74</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>12</v>
@@ -1495,21 +1522,24 @@
         <v>200270</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="J8" s="2">
+        <v>74</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="K8" s="2">
         <v>866</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:11">
       <c r="A9" s="1">
         <v>75</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>12</v>
@@ -1527,21 +1557,24 @@
         <v>609600</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="J9" s="2">
+        <v>74</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="K9" s="2">
         <v>866</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:11">
       <c r="A10" s="1">
         <v>76</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>12</v>
@@ -1559,21 +1592,24 @@
         <v>782980</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="J10" s="2">
+        <v>74</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="K10" s="2">
         <v>866</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:11">
       <c r="A11" s="1">
         <v>77</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>12</v>
@@ -1591,21 +1627,24 @@
         <v>338950</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="J11" s="2">
+        <v>74</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="K11" s="2">
         <v>866</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:11">
       <c r="A12" s="1">
         <v>78</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>12</v>
@@ -1623,21 +1662,24 @@
         <v>240000</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="J12" s="2">
+        <v>74</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="K12" s="2">
         <v>866</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:11">
       <c r="A13" s="1">
         <v>79</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>12</v>
@@ -1655,12 +1697,15 @@
         <v>8740</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="J13" s="2">
+        <v>74</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="K13" s="2">
         <v>866</v>
       </c>
     </row>
@@ -1679,19 +1724,19 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -1699,16 +1744,16 @@
         <v>96</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F2" s="2"/>
     </row>
@@ -1717,19 +1762,19 @@
         <v>97</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -1747,13 +1792,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1761,10 +1806,10 @@
         <v>103</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>11</v>
@@ -1775,10 +1820,10 @@
         <v>104</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>11</v>

--- a/legislator/property/output/normal/賴士葆_2011-11-23_財產申報表_tmp2bc41.xlsx
+++ b/legislator/property/output/normal/賴士葆_2011-11-23_財產申報表_tmp2bc41.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="100">
   <si>
     <t>土地坐落</t>
   </si>
@@ -196,6 +196,9 @@
     <t>property_category</t>
   </si>
   <si>
+    <t>category</t>
+  </si>
+  <si>
     <t>date</t>
   </si>
   <si>
@@ -205,6 +208,12 @@
     <t>legislator_id</t>
   </si>
   <si>
+    <t>source_file</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
     <t>台化</t>
   </si>
   <si>
@@ -244,7 +253,13 @@
     <t>stock</t>
   </si>
   <si>
+    <t>normal</t>
+  </si>
+  <si>
     <t>2011-11-23</t>
+  </si>
+  <si>
+    <t>tmp2bc41</t>
   </si>
   <si>
     <t>名稱</t>
@@ -1251,13 +1266,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K13"/>
+  <dimension ref="A1:N13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
         <v>51</v>
       </c>
@@ -1288,13 +1303,22 @@
       <c r="K1" s="1" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="L1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>67</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>12</v>
@@ -1312,24 +1336,33 @@
         <v>40</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K2" s="2">
+        <v>78</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L2" s="2">
         <v>866</v>
       </c>
-    </row>
-    <row r="3" spans="1:11">
+      <c r="M2" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="N2" s="2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>68</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>12</v>
@@ -1347,24 +1380,33 @@
         <v>500000</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K3" s="2">
+        <v>78</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L3" s="2">
         <v>866</v>
       </c>
-    </row>
-    <row r="4" spans="1:11">
+      <c r="M3" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="N3" s="2">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" s="1">
         <v>69</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>12</v>
@@ -1382,24 +1424,33 @@
         <v>30000</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K4" s="2">
+        <v>78</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L4" s="2">
         <v>866</v>
       </c>
-    </row>
-    <row r="5" spans="1:11">
+      <c r="M4" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="N4" s="2">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5" s="1">
         <v>70</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>12</v>
@@ -1417,24 +1468,33 @@
         <v>200000</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K5" s="2">
+        <v>78</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L5" s="2">
         <v>866</v>
       </c>
-    </row>
-    <row r="6" spans="1:11">
+      <c r="M5" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="N5" s="2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
       <c r="A6" s="1">
         <v>71</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>12</v>
@@ -1452,24 +1512,33 @@
         <v>435000</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K6" s="2">
+        <v>78</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L6" s="2">
         <v>866</v>
       </c>
-    </row>
-    <row r="7" spans="1:11">
+      <c r="M6" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="N6" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
       <c r="A7" s="1">
         <v>73</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>12</v>
@@ -1487,24 +1556,33 @@
         <v>1810740</v>
       </c>
       <c r="H7" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L7" s="2">
+        <v>866</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="N7" s="2">
         <v>73</v>
       </c>
-      <c r="I7" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K7" s="2">
-        <v>866</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
+    </row>
+    <row r="8" spans="1:14">
       <c r="A8" s="1">
         <v>74</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>12</v>
@@ -1522,24 +1600,33 @@
         <v>200270</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="I8" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L8" s="2">
+        <v>866</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="N8" s="2">
         <v>74</v>
       </c>
-      <c r="J8" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K8" s="2">
-        <v>866</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
+    </row>
+    <row r="9" spans="1:14">
       <c r="A9" s="1">
         <v>75</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>12</v>
@@ -1557,24 +1644,33 @@
         <v>609600</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K9" s="2">
+        <v>78</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L9" s="2">
         <v>866</v>
       </c>
-    </row>
-    <row r="10" spans="1:11">
+      <c r="M9" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="N9" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
       <c r="A10" s="1">
         <v>76</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>12</v>
@@ -1592,24 +1688,33 @@
         <v>782980</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K10" s="2">
+        <v>78</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L10" s="2">
         <v>866</v>
       </c>
-    </row>
-    <row r="11" spans="1:11">
+      <c r="M10" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="N10" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
       <c r="A11" s="1">
         <v>77</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>12</v>
@@ -1627,24 +1732,33 @@
         <v>338950</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K11" s="2">
+        <v>78</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L11" s="2">
         <v>866</v>
       </c>
-    </row>
-    <row r="12" spans="1:11">
+      <c r="M11" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="N11" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
       <c r="A12" s="1">
         <v>78</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>12</v>
@@ -1662,24 +1776,33 @@
         <v>240000</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K12" s="2">
+        <v>78</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L12" s="2">
         <v>866</v>
       </c>
-    </row>
-    <row r="13" spans="1:11">
+      <c r="M12" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="N12" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
       <c r="A13" s="1">
         <v>79</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>12</v>
@@ -1697,16 +1820,25 @@
         <v>8740</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K13" s="2">
+        <v>78</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L13" s="2">
         <v>866</v>
+      </c>
+      <c r="M13" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="N13" s="2">
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -1724,19 +1856,19 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -1744,16 +1876,16 @@
         <v>96</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="F2" s="2"/>
     </row>
@@ -1762,19 +1894,19 @@
         <v>97</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -1792,13 +1924,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1806,10 +1938,10 @@
         <v>103</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>11</v>
@@ -1820,10 +1952,10 @@
         <v>104</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>11</v>

--- a/legislator/property/output/normal/賴士葆_2011-11-23_財產申報表_tmp2bc41.xlsx
+++ b/legislator/property/output/normal/賴士葆_2011-11-23_財產申報表_tmp2bc41.xlsx
@@ -20,9 +20,96 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="100">
-  <si>
-    <t>土地坐落</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="104">
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>area</t>
+  </si>
+  <si>
+    <t>share_portion</t>
+  </si>
+  <si>
+    <t>owner</t>
+  </si>
+  <si>
+    <t>register_date</t>
+  </si>
+  <si>
+    <t>register_reason</t>
+  </si>
+  <si>
+    <t>acquire_value</t>
+  </si>
+  <si>
+    <t>property_category</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>legislator_name</t>
+  </si>
+  <si>
+    <t>legislator_id</t>
+  </si>
+  <si>
+    <t>source_file</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
+    <t>臺北市大安區瑞安段二小段08340000地號</t>
+  </si>
+  <si>
+    <t>新北市新店區華城二段02140000地號</t>
+  </si>
+  <si>
+    <t>10000分之202</t>
+  </si>
+  <si>
+    <t>全部</t>
+  </si>
+  <si>
+    <t>賴士葆</t>
+  </si>
+  <si>
+    <t>林良娥</t>
+  </si>
+  <si>
+    <t>83年9月</t>
+  </si>
+  <si>
+    <t>92年7月</t>
+  </si>
+  <si>
+    <t>買入</t>
+  </si>
+  <si>
+    <t>買人</t>
+  </si>
+  <si>
+    <t>(超過五年）</t>
+  </si>
+  <si>
+    <t>land</t>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>2011-11-23</t>
+  </si>
+  <si>
+    <t>tmp2bc41</t>
+  </si>
+  <si>
+    <t>建物標不</t>
   </si>
   <si>
     <t>面積（平方公尺）</t>
@@ -43,55 +130,19 @@
     <t>取得價額</t>
   </si>
   <si>
-    <t>臺北市大安區瑞安段二小段 0834-0000 地號</t>
-  </si>
-  <si>
-    <t>新北市新店區華城二段 0214-0000 地號</t>
-  </si>
-  <si>
-    <t>10000分之 202</t>
-  </si>
-  <si>
-    <t>全部</t>
-  </si>
-  <si>
-    <t>賴士葆</t>
-  </si>
-  <si>
-    <t>林良娥</t>
-  </si>
-  <si>
-    <t>83年9月</t>
-  </si>
-  <si>
-    <t>92年7月</t>
-  </si>
-  <si>
-    <t>買入</t>
-  </si>
-  <si>
-    <t>買人</t>
-  </si>
-  <si>
-    <t>(超過五年）</t>
-  </si>
-  <si>
-    <t>建物標不</t>
-  </si>
-  <si>
-    <t>臺北市大安區瑞安段二小段 02940-000 建號</t>
-  </si>
-  <si>
-    <t>臺北市大安區瑞安段二小段 02983-000 建號</t>
-  </si>
-  <si>
-    <t>新北市新店區華城二段 00053-000 建號</t>
+    <t>臺北市大安區瑞安段二小段02940000建號</t>
+  </si>
+  <si>
+    <t>臺北市大安區瑞安段二小段02983000建號</t>
+  </si>
+  <si>
+    <t>新北市新店區華城二段00053000建號</t>
   </si>
   <si>
     <t>56分之1</t>
   </si>
   <si>
-    <t>(超過五年，地 下室停車位）</t>
+    <t>(超過五年地下室停車位）</t>
   </si>
   <si>
     <t>廠牌型號</t>
@@ -106,7 +157,7 @@
     <t>休旅車</t>
   </si>
   <si>
-    <t>94年05月 26日</t>
+    <t>94年05月26日</t>
   </si>
   <si>
     <t>存放機構(應敘明分支機構）</t>
@@ -124,7 +175,7 @@
     <t>臺灣土地銀行文山分行</t>
   </si>
   <si>
-    <t>台北富邦商業銀行和平分 行</t>
+    <t>台北富邦商業銀行和平分行</t>
   </si>
   <si>
     <t>元大商業銀行台北分行</t>
@@ -133,22 +184,22 @@
     <t>第一商業銀行信義分行</t>
   </si>
   <si>
-    <t>合作金庫商業銀行西門支 庫</t>
-  </si>
-  <si>
-    <t>合作金庫商業銀行東門支 庫</t>
-  </si>
-  <si>
-    <t>合作金庫商業銀行大安支 庫</t>
-  </si>
-  <si>
-    <t>台北富邦商業銀行南門分 行</t>
-  </si>
-  <si>
-    <t>台新國際商業銀行信義分 行</t>
-  </si>
-  <si>
-    <t>中華郵政股份有限公司台 北青田郵局</t>
+    <t>合作金庫商業銀行西門支庫</t>
+  </si>
+  <si>
+    <t>合作金庫商業銀行東門支庫</t>
+  </si>
+  <si>
+    <t>合作金庫商業銀行大安支庫</t>
+  </si>
+  <si>
+    <t>台北富邦商業銀行南門分行</t>
+  </si>
+  <si>
+    <t>台新國際商業銀行信義分行</t>
+  </si>
+  <si>
+    <t>中華郵政股份有限公司台北青田郵局</t>
   </si>
   <si>
     <t>臺灣銀行城中分行</t>
@@ -157,7 +208,7 @@
     <t>中華郵政股份有限公司</t>
   </si>
   <si>
-    <t>慶豐商業銀行'</t>
+    <t>慶豐商業銀行</t>
   </si>
   <si>
     <t>台中第三信用合作社</t>
@@ -175,12 +226,6 @@
     <t>新臺幣</t>
   </si>
   <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>owner</t>
-  </si>
-  <si>
     <t>quantity</t>
   </si>
   <si>
@@ -193,27 +238,6 @@
     <t>total</t>
   </si>
   <si>
-    <t>property_category</t>
-  </si>
-  <si>
-    <t>category</t>
-  </si>
-  <si>
-    <t>date</t>
-  </si>
-  <si>
-    <t>legislator_name</t>
-  </si>
-  <si>
-    <t>legislator_id</t>
-  </si>
-  <si>
-    <t>source_file</t>
-  </si>
-  <si>
-    <t>index</t>
-  </si>
-  <si>
     <t>台化</t>
   </si>
   <si>
@@ -253,15 +277,6 @@
     <t>stock</t>
   </si>
   <si>
-    <t>normal</t>
-  </si>
-  <si>
-    <t>2011-11-23</t>
-  </si>
-  <si>
-    <t>tmp2bc41</t>
-  </si>
-  <si>
     <t>名稱</t>
   </si>
   <si>
@@ -274,31 +289,28 @@
     <t>外幣幣別</t>
   </si>
   <si>
-    <t>(九）珠寶、古董、字畫及#</t>
-  </si>
-  <si>
-    <t>財 產種類</t>
-  </si>
-  <si>
-    <t>-他具有相當價值之財產（總</t>
-  </si>
-  <si>
-    <t>項 / 件</t>
+    <t>(九）珠寶古董字畫及#</t>
+  </si>
+  <si>
+    <t>財產種類</t>
+  </si>
+  <si>
+    <t>他具有相當價值之財產（總</t>
+  </si>
+  <si>
+    <t>項件</t>
   </si>
   <si>
     <t>1額：新臺幣</t>
   </si>
   <si>
-    <t>所 有</t>
+    <t>所有</t>
   </si>
   <si>
     <t>元）</t>
   </si>
   <si>
-    <t>! 入</t>
-  </si>
-  <si>
-    <t>價 額</t>
+    <t>!入</t>
   </si>
   <si>
     <t>保險公司</t>
@@ -316,7 +328,7 @@
     <t>國華人壽</t>
   </si>
   <si>
-    <t>安泰人壽靈活理財變額保險 甲型</t>
+    <t>安泰人壽靈活理財變額保險甲型</t>
   </si>
   <si>
     <t>國華人壽終身壽險</t>
@@ -678,13 +690,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:O3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:15">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -706,57 +718,120 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>14</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C2" s="2">
         <v>2623</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="M2" s="2">
+        <v>866</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="O2" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>15</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C3" s="2">
         <v>471.04</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="M3" s="2">
+        <v>866</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="O3" s="2">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -774,25 +849,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>6</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -800,25 +875,25 @@
         <v>20</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="C2" s="2">
         <v>156.6</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -826,25 +901,25 @@
         <v>21</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="C3" s="2">
         <v>4370.2</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>15</v>
-      </c>
       <c r="H3" s="2" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -852,25 +927,25 @@
         <v>22</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="C4" s="2">
         <v>238.91</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -888,22 +963,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>6</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -911,22 +986,22 @@
         <v>32</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="C2" s="2">
         <v>1997</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -944,19 +1019,19 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -964,16 +1039,16 @@
         <v>46</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="F2" s="2">
         <v>443903</v>
@@ -984,16 +1059,16 @@
         <v>47</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="F3" s="2">
         <v>451912</v>
@@ -1004,16 +1079,16 @@
         <v>48</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="F4" s="2">
         <v>1052829</v>
@@ -1024,16 +1099,16 @@
         <v>49</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="F5" s="2">
         <v>464399</v>
@@ -1044,16 +1119,16 @@
         <v>50</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F6" s="2">
         <v>274</v>
@@ -1064,16 +1139,16 @@
         <v>51</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F7" s="2">
         <v>749</v>
@@ -1084,16 +1159,16 @@
         <v>52</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F8" s="2">
         <v>14197</v>
@@ -1104,16 +1179,16 @@
         <v>53</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F9" s="2">
         <v>3230954</v>
@@ -1124,16 +1199,16 @@
         <v>54</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F10" s="2">
         <v>314</v>
@@ -1144,16 +1219,16 @@
         <v>55</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F11" s="2">
         <v>366699</v>
@@ -1164,16 +1239,16 @@
         <v>56</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F12" s="2">
         <v>949</v>
@@ -1184,16 +1259,16 @@
         <v>57</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="F13" s="2">
         <v>432627</v>
@@ -1204,16 +1279,16 @@
         <v>58</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="F14" s="2">
         <v>23480</v>
@@ -1224,16 +1299,16 @@
         <v>59</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="F15" s="2">
         <v>115</v>
@@ -1244,16 +1319,16 @@
         <v>60</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F16" s="2">
         <v>3827</v>
@@ -1274,43 +1349,43 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>52</v>
+        <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>57</v>
+        <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>58</v>
+        <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>59</v>
+        <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>61</v>
+        <v>11</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>62</v>
+        <v>12</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>63</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -1318,10 +1393,10 @@
         <v>67</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D2" s="2">
         <v>4</v>
@@ -1330,28 +1405,28 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="G2" s="2">
         <v>40</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>77</v>
+        <v>26</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>78</v>
+        <v>27</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="L2" s="2">
         <v>866</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>79</v>
+        <v>28</v>
       </c>
       <c r="N2" s="2">
         <v>67</v>
@@ -1362,10 +1437,10 @@
         <v>68</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D3" s="2">
         <v>50000</v>
@@ -1374,28 +1449,28 @@
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="G3" s="2">
         <v>500000</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>77</v>
+        <v>26</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>78</v>
+        <v>27</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="L3" s="2">
         <v>866</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>79</v>
+        <v>28</v>
       </c>
       <c r="N3" s="2">
         <v>68</v>
@@ -1406,10 +1481,10 @@
         <v>69</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D4" s="2">
         <v>3000</v>
@@ -1418,28 +1493,28 @@
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="G4" s="2">
         <v>30000</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>77</v>
+        <v>26</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>78</v>
+        <v>27</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="L4" s="2">
         <v>866</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>79</v>
+        <v>28</v>
       </c>
       <c r="N4" s="2">
         <v>69</v>
@@ -1450,10 +1525,10 @@
         <v>70</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D5" s="2">
         <v>20000</v>
@@ -1462,28 +1537,28 @@
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="G5" s="2">
         <v>200000</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>77</v>
+        <v>26</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>78</v>
+        <v>27</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="L5" s="2">
         <v>866</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>79</v>
+        <v>28</v>
       </c>
       <c r="N5" s="2">
         <v>70</v>
@@ -1494,10 +1569,10 @@
         <v>71</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D6" s="2">
         <v>43500</v>
@@ -1506,28 +1581,28 @@
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="G6" s="2">
         <v>435000</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>77</v>
+        <v>26</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>78</v>
+        <v>27</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="L6" s="2">
         <v>866</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>79</v>
+        <v>28</v>
       </c>
       <c r="N6" s="2">
         <v>71</v>
@@ -1538,10 +1613,10 @@
         <v>73</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D7" s="2">
         <v>181074</v>
@@ -1550,28 +1625,28 @@
         <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="G7" s="2">
         <v>1810740</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>77</v>
+        <v>26</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>78</v>
+        <v>27</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="L7" s="2">
         <v>866</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>79</v>
+        <v>28</v>
       </c>
       <c r="N7" s="2">
         <v>73</v>
@@ -1582,10 +1657,10 @@
         <v>74</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D8" s="2">
         <v>20027</v>
@@ -1594,28 +1669,28 @@
         <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="G8" s="2">
         <v>200270</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>77</v>
+        <v>26</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>78</v>
+        <v>27</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="L8" s="2">
         <v>866</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>79</v>
+        <v>28</v>
       </c>
       <c r="N8" s="2">
         <v>74</v>
@@ -1626,10 +1701,10 @@
         <v>75</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D9" s="2">
         <v>60960</v>
@@ -1638,28 +1713,28 @@
         <v>10</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="G9" s="2">
         <v>609600</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>77</v>
+        <v>26</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>78</v>
+        <v>27</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="L9" s="2">
         <v>866</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>79</v>
+        <v>28</v>
       </c>
       <c r="N9" s="2">
         <v>75</v>
@@ -1670,10 +1745,10 @@
         <v>76</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D10" s="2">
         <v>78298</v>
@@ -1682,28 +1757,28 @@
         <v>10</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="G10" s="2">
         <v>782980</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>77</v>
+        <v>26</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>78</v>
+        <v>27</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="L10" s="2">
         <v>866</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>79</v>
+        <v>28</v>
       </c>
       <c r="N10" s="2">
         <v>76</v>
@@ -1714,10 +1789,10 @@
         <v>77</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D11" s="2">
         <v>33895</v>
@@ -1726,28 +1801,28 @@
         <v>10</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="G11" s="2">
         <v>338950</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>77</v>
+        <v>26</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>78</v>
+        <v>27</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="L11" s="2">
         <v>866</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>79</v>
+        <v>28</v>
       </c>
       <c r="N11" s="2">
         <v>77</v>
@@ -1758,10 +1833,10 @@
         <v>78</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D12" s="2">
         <v>24000</v>
@@ -1770,28 +1845,28 @@
         <v>10</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="G12" s="2">
         <v>240000</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>77</v>
+        <v>26</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>78</v>
+        <v>27</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="L12" s="2">
         <v>866</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>79</v>
+        <v>28</v>
       </c>
       <c r="N12" s="2">
         <v>78</v>
@@ -1802,10 +1877,10 @@
         <v>79</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D13" s="2">
         <v>874</v>
@@ -1814,28 +1889,28 @@
         <v>10</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="G13" s="2">
         <v>8740</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>77</v>
+        <v>26</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>78</v>
+        <v>27</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="L13" s="2">
         <v>866</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>79</v>
+        <v>28</v>
       </c>
       <c r="N13" s="2">
         <v>79</v>
@@ -1856,19 +1931,19 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -1876,16 +1951,16 @@
         <v>96</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="F2" s="2"/>
     </row>
@@ -1894,19 +1969,19 @@
         <v>97</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>87</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -1924,13 +1999,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1938,13 +2013,13 @@
         <v>103</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1952,13 +2027,13 @@
         <v>104</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/賴士葆_2011-11-23_財產申報表_tmp2bc41.xlsx
+++ b/legislator/property/output/normal/賴士葆_2011-11-23_財產申報表_tmp2bc41.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="82">
   <si>
     <t>name</t>
   </si>
@@ -64,75 +64,54 @@
     <t>index</t>
   </si>
   <si>
-    <t>臺北市大安區瑞安段二小段08340000地號</t>
+    <t>portion</t>
+  </si>
+  <si>
+    <t>total</t>
   </si>
   <si>
     <t>新北市新店區華城二段02140000地號</t>
   </si>
   <si>
-    <t>10000分之202</t>
-  </si>
-  <si>
     <t>全部</t>
   </si>
   <si>
+    <t>林良娥</t>
+  </si>
+  <si>
+    <t>92年7月</t>
+  </si>
+  <si>
+    <t>買人</t>
+  </si>
+  <si>
+    <t>(超過五年）</t>
+  </si>
+  <si>
+    <t>land</t>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>2011-11-23</t>
+  </si>
+  <si>
     <t>賴士葆</t>
   </si>
   <si>
-    <t>林良娥</t>
+    <t>tmp2bc41</t>
+  </si>
+  <si>
+    <t>臺北市大安區瑞安段二小段02940000建號</t>
   </si>
   <si>
     <t>83年9月</t>
   </si>
   <si>
-    <t>92年7月</t>
-  </si>
-  <si>
     <t>買入</t>
   </si>
   <si>
-    <t>買人</t>
-  </si>
-  <si>
-    <t>(超過五年）</t>
-  </si>
-  <si>
-    <t>land</t>
-  </si>
-  <si>
-    <t>normal</t>
-  </si>
-  <si>
-    <t>2011-11-23</t>
-  </si>
-  <si>
-    <t>tmp2bc41</t>
-  </si>
-  <si>
-    <t>建物標不</t>
-  </si>
-  <si>
-    <t>面積（平方公尺）</t>
-  </si>
-  <si>
-    <t>權利範圍(持分）</t>
-  </si>
-  <si>
-    <t>所有權人</t>
-  </si>
-  <si>
-    <t>登記（取得）時間</t>
-  </si>
-  <si>
-    <t>登記（取得）原因</t>
-  </si>
-  <si>
-    <t>取得價額</t>
-  </si>
-  <si>
-    <t>臺北市大安區瑞安段二小段02940000建號</t>
-  </si>
-  <si>
     <t>臺北市大安區瑞安段二小段02983000建號</t>
   </si>
   <si>
@@ -145,36 +124,21 @@
     <t>(超過五年地下室停車位）</t>
   </si>
   <si>
-    <t>廠牌型號</t>
-  </si>
-  <si>
-    <t>汽缸容量</t>
-  </si>
-  <si>
-    <t>所有人</t>
-  </si>
-  <si>
     <t>休旅車</t>
   </si>
   <si>
     <t>94年05月26日</t>
   </si>
   <si>
-    <t>存放機構(應敘明分支機構）</t>
-  </si>
-  <si>
-    <t>種類</t>
-  </si>
-  <si>
-    <t>幣別</t>
-  </si>
-  <si>
-    <t>新臺幣總額或折合新臺幣總額</t>
-  </si>
-  <si>
     <t>臺灣土地銀行文山分行</t>
   </si>
   <si>
+    <t>活期儲蓄存款</t>
+  </si>
+  <si>
+    <t>新臺幣</t>
+  </si>
+  <si>
     <t>台北富邦商業銀行和平分行</t>
   </si>
   <si>
@@ -214,18 +178,12 @@
     <t>台中第三信用合作社</t>
   </si>
   <si>
-    <t>活期儲蓄存款</t>
-  </si>
-  <si>
     <t>支票存款</t>
   </si>
   <si>
     <t>活期存款</t>
   </si>
   <si>
-    <t>新臺幣</t>
-  </si>
-  <si>
     <t>quantity</t>
   </si>
   <si>
@@ -235,12 +193,6 @@
     <t>currency</t>
   </si>
   <si>
-    <t>total</t>
-  </si>
-  <si>
-    <t>台化</t>
-  </si>
-  <si>
     <t>中華電</t>
   </si>
   <si>
@@ -277,58 +229,40 @@
     <t>stock</t>
   </si>
   <si>
-    <t>名稱</t>
-  </si>
-  <si>
-    <t>單位數</t>
+    <t>(九）珠寶古董字畫及#</t>
+  </si>
+  <si>
+    <t>他具有相當價值之財產（總</t>
+  </si>
+  <si>
+    <t>1額：新臺幣</t>
+  </si>
+  <si>
+    <t>元）</t>
+  </si>
+  <si>
+    <t>財產種類</t>
+  </si>
+  <si>
+    <t>項件</t>
+  </si>
+  <si>
+    <t>所有</t>
+  </si>
+  <si>
+    <t>!入</t>
   </si>
   <si>
     <t>價額</t>
   </si>
   <si>
-    <t>外幣幣別</t>
-  </si>
-  <si>
-    <t>(九）珠寶古董字畫及#</t>
-  </si>
-  <si>
-    <t>財產種類</t>
-  </si>
-  <si>
-    <t>他具有相當價值之財產（總</t>
-  </si>
-  <si>
-    <t>項件</t>
-  </si>
-  <si>
-    <t>1額：新臺幣</t>
-  </si>
-  <si>
-    <t>所有</t>
-  </si>
-  <si>
-    <t>元）</t>
-  </si>
-  <si>
-    <t>!入</t>
-  </si>
-  <si>
-    <t>保險公司</t>
-  </si>
-  <si>
-    <t>保險名稱</t>
-  </si>
-  <si>
-    <t>要保人</t>
-  </si>
-  <si>
     <t>富邦人壽</t>
   </si>
   <si>
+    <t>安泰人壽靈活理財變額保險甲型</t>
+  </si>
+  <si>
     <t>國華人壽</t>
-  </si>
-  <si>
-    <t>安泰人壽靈活理財變額保險甲型</t>
   </si>
   <si>
     <t>國華人壽終身壽險</t>
@@ -690,13 +624,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O3"/>
+  <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -739,99 +673,64 @@
       <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C2" s="2">
-        <v>2623</v>
+        <v>471.04</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>18</v>
       </c>
       <c r="F2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="J2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="I2" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>27</v>
-      </c>
       <c r="L2" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="M2" s="2">
         <v>866</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="O2" s="2">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
-      <c r="A3" s="1">
         <v>15</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="2">
+      <c r="P2" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="2">
         <v>471.04</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="M3" s="2">
-        <v>866</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="O3" s="2">
-        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -841,7 +740,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -849,103 +748,77 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="1">
+        <v>156.6</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>34</v>
-      </c>
       <c r="H1" s="1" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C2" s="2">
-        <v>156.6</v>
+        <v>4370.2</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1">
+        <v>22</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="2">
+        <v>238.91</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C3" s="2">
-        <v>4370.2</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="1">
-        <v>22</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C4" s="2">
-        <v>238.91</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -955,53 +828,30 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="B1:G1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="2:7">
       <c r="B1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>42</v>
+        <v>34</v>
+      </c>
+      <c r="C1" s="1">
+        <v>1997</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1">
-        <v>32</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C2" s="2">
-        <v>1997</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -1011,7 +861,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1019,318 +869,298 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>49</v>
+        <v>18</v>
+      </c>
+      <c r="F1" s="1">
+        <v>443903</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>64</v>
+        <v>37</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>67</v>
+        <v>38</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F2" s="2">
-        <v>443903</v>
+        <v>451912</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>64</v>
+        <v>37</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>67</v>
+        <v>38</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F3" s="2">
-        <v>451912</v>
+        <v>1052829</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>64</v>
+        <v>37</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>67</v>
+        <v>38</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F4" s="2">
-        <v>1052829</v>
+        <v>464399</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>64</v>
+        <v>37</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>67</v>
+        <v>38</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="F5" s="2">
-        <v>464399</v>
+        <v>274</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>64</v>
+        <v>37</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>67</v>
+        <v>38</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="F6" s="2">
-        <v>274</v>
+        <v>749</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>64</v>
+        <v>37</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>67</v>
+        <v>38</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="F7" s="2">
-        <v>749</v>
+        <v>14197</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="1">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>64</v>
+        <v>37</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>67</v>
+        <v>38</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="F8" s="2">
-        <v>14197</v>
+        <v>3230954</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="1">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>64</v>
+        <v>37</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>67</v>
+        <v>38</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="F9" s="2">
-        <v>3230954</v>
+        <v>314</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="1">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>64</v>
+        <v>37</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>67</v>
+        <v>38</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="F10" s="2">
-        <v>314</v>
+        <v>366699</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="1">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>64</v>
+        <v>37</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>67</v>
+        <v>38</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="F11" s="2">
-        <v>366699</v>
+        <v>949</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="1">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>60</v>
+        <v>39</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>67</v>
+        <v>38</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>18</v>
       </c>
       <c r="F12" s="2">
-        <v>949</v>
+        <v>432627</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="1">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>67</v>
+        <v>38</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F13" s="2">
-        <v>432627</v>
+        <v>23480</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="1">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>66</v>
+        <v>37</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>67</v>
+        <v>38</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F14" s="2">
-        <v>23480</v>
+        <v>115</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="1">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>64</v>
+        <v>37</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>67</v>
+        <v>38</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="F15" s="2">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="1">
-        <v>60</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F16" s="2">
         <v>3827</v>
       </c>
     </row>
@@ -1341,7 +1171,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N13"/>
+  <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1355,16 +1185,16 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>71</v>
+        <v>15</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>7</v>
@@ -1390,529 +1220,485 @@
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="1">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D2" s="2">
-        <v>4</v>
+        <v>50000</v>
       </c>
       <c r="E2" s="2">
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>67</v>
+        <v>38</v>
       </c>
       <c r="G2" s="2">
-        <v>40</v>
+        <v>500000</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="L2" s="2">
         <v>866</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="N2" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D3" s="2">
-        <v>50000</v>
+        <v>3000</v>
       </c>
       <c r="E3" s="2">
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>67</v>
+        <v>38</v>
       </c>
       <c r="G3" s="2">
-        <v>500000</v>
+        <v>30000</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="L3" s="2">
         <v>866</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="N3" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="1">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D4" s="2">
-        <v>3000</v>
+        <v>20000</v>
       </c>
       <c r="E4" s="2">
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>67</v>
+        <v>38</v>
       </c>
       <c r="G4" s="2">
-        <v>30000</v>
+        <v>200000</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="L4" s="2">
         <v>866</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="N4" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="1">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D5" s="2">
-        <v>20000</v>
+        <v>43500</v>
       </c>
       <c r="E5" s="2">
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>67</v>
+        <v>38</v>
       </c>
       <c r="G5" s="2">
-        <v>200000</v>
+        <v>435000</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="L5" s="2">
         <v>866</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="N5" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="1">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D6" s="2">
-        <v>43500</v>
+        <v>181074</v>
       </c>
       <c r="E6" s="2">
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>67</v>
+        <v>38</v>
       </c>
       <c r="G6" s="2">
-        <v>435000</v>
+        <v>1810740</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="L6" s="2">
         <v>866</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="N6" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="1">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D7" s="2">
-        <v>181074</v>
+        <v>20027</v>
       </c>
       <c r="E7" s="2">
         <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>67</v>
+        <v>38</v>
       </c>
       <c r="G7" s="2">
-        <v>1810740</v>
+        <v>200270</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="L7" s="2">
         <v>866</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="N7" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="1">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D8" s="2">
-        <v>20027</v>
+        <v>60960</v>
       </c>
       <c r="E8" s="2">
         <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>67</v>
+        <v>38</v>
       </c>
       <c r="G8" s="2">
-        <v>200270</v>
+        <v>609600</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="L8" s="2">
         <v>866</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="N8" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="1">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D9" s="2">
-        <v>60960</v>
+        <v>78298</v>
       </c>
       <c r="E9" s="2">
         <v>10</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>67</v>
+        <v>38</v>
       </c>
       <c r="G9" s="2">
-        <v>609600</v>
+        <v>782980</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="L9" s="2">
         <v>866</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="N9" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="1">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D10" s="2">
-        <v>78298</v>
+        <v>33895</v>
       </c>
       <c r="E10" s="2">
         <v>10</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>67</v>
+        <v>38</v>
       </c>
       <c r="G10" s="2">
-        <v>782980</v>
+        <v>338950</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="L10" s="2">
         <v>866</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="N10" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="1">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D11" s="2">
-        <v>33895</v>
+        <v>24000</v>
       </c>
       <c r="E11" s="2">
         <v>10</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>67</v>
+        <v>38</v>
       </c>
       <c r="G11" s="2">
-        <v>338950</v>
+        <v>240000</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="L11" s="2">
         <v>866</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="N11" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="1">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D12" s="2">
-        <v>24000</v>
+        <v>874</v>
       </c>
       <c r="E12" s="2">
         <v>10</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>67</v>
+        <v>38</v>
       </c>
       <c r="G12" s="2">
-        <v>240000</v>
+        <v>8740</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="L12" s="2">
         <v>866</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="N12" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
-      <c r="A13" s="1">
-        <v>79</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D13" s="2">
-        <v>874</v>
-      </c>
-      <c r="E13" s="2">
-        <v>10</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="G13" s="2">
-        <v>8740</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="J13" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="K13" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="L13" s="2">
-        <v>866</v>
-      </c>
-      <c r="M13" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="N13" s="2">
         <v>79</v>
       </c>
     </row>
@@ -1923,7 +1709,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1931,57 +1717,37 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>85</v>
+        <v>69</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>43</v>
+        <v>70</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>88</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="F1" s="1"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>91</v>
+        <v>74</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>93</v>
+        <v>75</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="F2" s="2"/>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="1">
-        <v>97</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>87</v>
+        <v>76</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -1991,7 +1757,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1999,41 +1765,27 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>99</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>102</v>
+        <v>81</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="1">
-        <v>104</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/賴士葆_2011-11-23_財產申報表_tmp2bc41.xlsx
+++ b/legislator/property/output/normal/賴士葆_2011-11-23_財產申報表_tmp2bc41.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="85">
   <si>
     <t>name</t>
   </si>
@@ -70,18 +70,33 @@
     <t>total</t>
   </si>
   <si>
+    <t>臺北市大安區瑞安段二小段08340000地號</t>
+  </si>
+  <si>
     <t>新北市新店區華城二段02140000地號</t>
   </si>
   <si>
+    <t>10000分之202</t>
+  </si>
+  <si>
     <t>全部</t>
   </si>
   <si>
+    <t>賴士葆</t>
+  </si>
+  <si>
     <t>林良娥</t>
   </si>
   <si>
+    <t>83年9月</t>
+  </si>
+  <si>
     <t>92年7月</t>
   </si>
   <si>
+    <t>買入</t>
+  </si>
+  <si>
     <t>買人</t>
   </si>
   <si>
@@ -97,21 +112,12 @@
     <t>2011-11-23</t>
   </si>
   <si>
-    <t>賴士葆</t>
-  </si>
-  <si>
     <t>tmp2bc41</t>
   </si>
   <si>
     <t>臺北市大安區瑞安段二小段02940000建號</t>
   </si>
   <si>
-    <t>83年9月</t>
-  </si>
-  <si>
-    <t>買入</t>
-  </si>
-  <si>
     <t>臺北市大安區瑞安段二小段02983000建號</t>
   </si>
   <si>
@@ -191,6 +197,9 @@
   </si>
   <si>
     <t>currency</t>
+  </si>
+  <si>
+    <t>台化</t>
   </si>
   <si>
     <t>中華電</t>
@@ -624,7 +633,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q2"/>
+  <dimension ref="A1:Q3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -682,54 +691,107 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="1">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C2" s="2">
-        <v>471.04</v>
+        <v>2623</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="M2" s="2">
         <v>866</v>
       </c>
       <c r="N2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="O2" s="2">
+        <v>14</v>
+      </c>
+      <c r="P2" s="2">
+        <v>0.0202</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>52.9846</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3" s="1">
+        <v>15</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="2">
+        <v>471.04</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="O2" s="2">
+      <c r="I3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M3" s="2">
+        <v>866</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="O3" s="2">
         <v>15</v>
       </c>
-      <c r="P2" s="2">
+      <c r="P3" s="2">
         <v>1</v>
       </c>
-      <c r="Q2" s="2">
+      <c r="Q3" s="2">
         <v>471.04</v>
       </c>
     </row>
@@ -740,85 +802,219 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:Q4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:17">
       <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
+      <c r="A2" s="1">
+        <v>20</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="2">
+        <v>156.6</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="1">
+      <c r="J2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M2" s="2">
+        <v>866</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="O2" s="2">
+        <v>20</v>
+      </c>
+      <c r="P2" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="2">
         <v>156.6</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F1" s="1" t="s">
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3" s="1">
+        <v>21</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="2">
+        <v>4370.2</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J3" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="K3" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1">
-        <v>21</v>
-      </c>
-      <c r="B2" s="2" t="s">
+      <c r="L3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M3" s="2">
+        <v>866</v>
+      </c>
+      <c r="N3" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="2">
-        <v>4370.2</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F2" s="2" t="s">
+      <c r="O3" s="2">
+        <v>21</v>
+      </c>
+      <c r="P3" s="2">
+        <v>0.0178571428571429</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>78.0392857142857</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
+      <c r="A4" s="1">
+        <v>22</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" s="2">
+        <v>238.91</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J4" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="K4" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="H2" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="1">
+      <c r="L4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M4" s="2">
+        <v>866</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="O4" s="2">
         <v>22</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C3" s="2">
+      <c r="P4" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="2">
         <v>238.91</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -828,30 +1024,53 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:G1"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="2:7">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C1" s="1">
         <v>1997</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1">
+        <v>32</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="2">
+        <v>1997</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -861,7 +1080,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -869,16 +1088,16 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F1" s="1">
         <v>443903</v>
@@ -886,281 +1105,301 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>37</v>
-      </c>
       <c r="D2" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F2" s="2">
-        <v>451912</v>
+        <v>443903</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F3" s="2">
-        <v>1052829</v>
+        <v>451912</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F4" s="2">
-        <v>464399</v>
+        <v>1052829</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="F5" s="2">
-        <v>274</v>
+        <v>464399</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F6" s="2">
-        <v>749</v>
+        <v>274</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F7" s="2">
-        <v>14197</v>
+        <v>749</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="1">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F8" s="2">
-        <v>3230954</v>
+        <v>14197</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="1">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F9" s="2">
-        <v>314</v>
+        <v>3230954</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="1">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F10" s="2">
-        <v>366699</v>
+        <v>314</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="1">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F11" s="2">
-        <v>949</v>
+        <v>366699</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="1">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B12" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="D12" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F12" s="2">
-        <v>432627</v>
+        <v>949</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="1">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F13" s="2">
-        <v>23480</v>
+        <v>432627</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="1">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F14" s="2">
-        <v>115</v>
+        <v>23480</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="1">
+        <v>59</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F15" s="2">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="1">
         <v>60</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F15" s="2">
+      <c r="B16" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F16" s="2">
         <v>3827</v>
       </c>
     </row>
@@ -1171,7 +1410,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N12"/>
+  <dimension ref="A1:N13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1185,13 +1424,13 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>15</v>
@@ -1220,485 +1459,529 @@
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="1">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D2" s="2">
-        <v>50000</v>
+        <v>4</v>
       </c>
       <c r="E2" s="2">
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G2" s="2">
-        <v>500000</v>
+        <v>40</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="L2" s="2">
         <v>866</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="N2" s="2">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D3" s="2">
-        <v>3000</v>
+        <v>50000</v>
       </c>
       <c r="E3" s="2">
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G3" s="2">
-        <v>30000</v>
+        <v>500000</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="L3" s="2">
         <v>866</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="N3" s="2">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="1">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D4" s="2">
-        <v>20000</v>
+        <v>3000</v>
       </c>
       <c r="E4" s="2">
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G4" s="2">
-        <v>200000</v>
+        <v>30000</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="L4" s="2">
         <v>866</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="N4" s="2">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="1">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D5" s="2">
-        <v>43500</v>
+        <v>20000</v>
       </c>
       <c r="E5" s="2">
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G5" s="2">
-        <v>435000</v>
+        <v>200000</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="L5" s="2">
         <v>866</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="N5" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="1">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D6" s="2">
-        <v>181074</v>
+        <v>43500</v>
       </c>
       <c r="E6" s="2">
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G6" s="2">
-        <v>1810740</v>
+        <v>435000</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="L6" s="2">
         <v>866</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="N6" s="2">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="1">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D7" s="2">
-        <v>20027</v>
+        <v>181074</v>
       </c>
       <c r="E7" s="2">
         <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G7" s="2">
-        <v>200270</v>
+        <v>1810740</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="L7" s="2">
         <v>866</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="N7" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="1">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D8" s="2">
-        <v>60960</v>
+        <v>20027</v>
       </c>
       <c r="E8" s="2">
         <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G8" s="2">
-        <v>609600</v>
+        <v>200270</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="L8" s="2">
         <v>866</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="N8" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="1">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D9" s="2">
-        <v>78298</v>
+        <v>60960</v>
       </c>
       <c r="E9" s="2">
         <v>10</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G9" s="2">
-        <v>782980</v>
+        <v>609600</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="L9" s="2">
         <v>866</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="N9" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="1">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D10" s="2">
-        <v>33895</v>
+        <v>78298</v>
       </c>
       <c r="E10" s="2">
         <v>10</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G10" s="2">
-        <v>338950</v>
+        <v>782980</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="L10" s="2">
         <v>866</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="N10" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="1">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D11" s="2">
-        <v>24000</v>
+        <v>33895</v>
       </c>
       <c r="E11" s="2">
         <v>10</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G11" s="2">
-        <v>240000</v>
+        <v>338950</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="L11" s="2">
         <v>866</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="N11" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="1">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D12" s="2">
-        <v>874</v>
+        <v>24000</v>
       </c>
       <c r="E12" s="2">
         <v>10</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G12" s="2">
-        <v>8740</v>
+        <v>240000</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="L12" s="2">
         <v>866</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="N12" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="A13" s="1">
+        <v>79</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" s="2">
+        <v>874</v>
+      </c>
+      <c r="E13" s="2">
+        <v>10</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G13" s="2">
+        <v>8740</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L13" s="2">
+        <v>866</v>
+      </c>
+      <c r="M13" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="N13" s="2">
         <v>79</v>
       </c>
     </row>
@@ -1709,7 +1992,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1717,37 +2000,55 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="F1" s="1"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1">
+        <v>96</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F2" s="2"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="1">
         <v>97</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="E2" s="2" t="s">
+      <c r="B3" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="C3" s="2" t="s">
         <v>77</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -1757,7 +2058,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1765,27 +2066,41 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1">
+        <v>103</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1">
         <v>104</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>25</v>
+      <c r="B3" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/賴士葆_2011-11-23_財產申報表_tmp2bc41.xlsx
+++ b/legislator/property/output/normal/賴士葆_2011-11-23_財產申報表_tmp2bc41.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="86">
   <si>
     <t>name</t>
   </si>
@@ -128,6 +128,9 @@
   </si>
   <si>
     <t>(超過五年地下室停車位）</t>
+  </si>
+  <si>
+    <t>capacity</t>
   </si>
   <si>
     <t>休旅車</t>
@@ -1024,38 +1027,59 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C1" s="1">
-        <v>1997</v>
-      </c>
       <c r="D1" s="1" t="s">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>37</v>
+        <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>32</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C2" s="2">
         <v>1997</v>
@@ -1064,13 +1088,34 @@
         <v>21</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>24</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>26</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L2" s="2">
+        <v>866</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="N2" s="2">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -1088,13 +1133,13 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>21</v>
@@ -1108,13 +1153,13 @@
         <v>46</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>21</v>
@@ -1128,13 +1173,13 @@
         <v>47</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>21</v>
@@ -1148,13 +1193,13 @@
         <v>48</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>21</v>
@@ -1168,13 +1213,13 @@
         <v>49</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>21</v>
@@ -1188,13 +1233,13 @@
         <v>50</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>20</v>
@@ -1208,13 +1253,13 @@
         <v>51</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>20</v>
@@ -1228,13 +1273,13 @@
         <v>52</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>20</v>
@@ -1248,13 +1293,13 @@
         <v>53</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>20</v>
@@ -1268,13 +1313,13 @@
         <v>54</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>20</v>
@@ -1288,13 +1333,13 @@
         <v>55</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>20</v>
@@ -1308,13 +1353,13 @@
         <v>56</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>20</v>
@@ -1328,13 +1373,13 @@
         <v>57</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>21</v>
@@ -1348,13 +1393,13 @@
         <v>58</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>21</v>
@@ -1368,13 +1413,13 @@
         <v>59</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>21</v>
@@ -1388,13 +1433,13 @@
         <v>60</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>20</v>
@@ -1424,13 +1469,13 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>15</v>
@@ -1462,7 +1507,7 @@
         <v>67</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>21</v>
@@ -1474,13 +1519,13 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G2" s="2">
         <v>40</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>28</v>
@@ -1506,7 +1551,7 @@
         <v>68</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>21</v>
@@ -1518,13 +1563,13 @@
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G3" s="2">
         <v>500000</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>28</v>
@@ -1550,7 +1595,7 @@
         <v>69</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>21</v>
@@ -1562,13 +1607,13 @@
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G4" s="2">
         <v>30000</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>28</v>
@@ -1594,7 +1639,7 @@
         <v>70</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>21</v>
@@ -1606,13 +1651,13 @@
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G5" s="2">
         <v>200000</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>28</v>
@@ -1638,7 +1683,7 @@
         <v>71</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>21</v>
@@ -1650,13 +1695,13 @@
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G6" s="2">
         <v>435000</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>28</v>
@@ -1682,7 +1727,7 @@
         <v>73</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>21</v>
@@ -1694,13 +1739,13 @@
         <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G7" s="2">
         <v>1810740</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>28</v>
@@ -1726,7 +1771,7 @@
         <v>74</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>21</v>
@@ -1738,13 +1783,13 @@
         <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G8" s="2">
         <v>200270</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>28</v>
@@ -1770,7 +1815,7 @@
         <v>75</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>21</v>
@@ -1782,13 +1827,13 @@
         <v>10</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G9" s="2">
         <v>609600</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I9" s="2" t="s">
         <v>28</v>
@@ -1814,7 +1859,7 @@
         <v>76</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>21</v>
@@ -1826,13 +1871,13 @@
         <v>10</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G10" s="2">
         <v>782980</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I10" s="2" t="s">
         <v>28</v>
@@ -1858,7 +1903,7 @@
         <v>77</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>21</v>
@@ -1870,13 +1915,13 @@
         <v>10</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G11" s="2">
         <v>338950</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I11" s="2" t="s">
         <v>28</v>
@@ -1902,7 +1947,7 @@
         <v>78</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>21</v>
@@ -1914,13 +1959,13 @@
         <v>10</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G12" s="2">
         <v>240000</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I12" s="2" t="s">
         <v>28</v>
@@ -1946,7 +1991,7 @@
         <v>79</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>21</v>
@@ -1958,13 +2003,13 @@
         <v>10</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G13" s="2">
         <v>8740</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I13" s="2" t="s">
         <v>28</v>
@@ -2000,16 +2045,16 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F1" s="1"/>
     </row>
@@ -2018,16 +2063,16 @@
         <v>96</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F2" s="2"/>
     </row>
@@ -2036,19 +2081,19 @@
         <v>97</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -2066,10 +2111,10 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>20</v>
@@ -2080,10 +2125,10 @@
         <v>103</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>20</v>
@@ -2094,10 +2139,10 @@
         <v>104</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>20</v>

--- a/legislator/property/output/normal/賴士葆_2011-11-23_財產申報表_tmp2bc41.xlsx
+++ b/legislator/property/output/normal/賴士葆_2011-11-23_財產申報表_tmp2bc41.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="88">
   <si>
     <t>name</t>
   </si>
@@ -130,6 +130,9 @@
     <t>(超過五年地下室停車位）</t>
   </si>
   <si>
+    <t>building</t>
+  </si>
+  <si>
     <t>capacity</t>
   </si>
   <si>
@@ -137,6 +140,9 @@
   </si>
   <si>
     <t>94年05月26日</t>
+  </si>
+  <si>
+    <t>car</t>
   </si>
   <si>
     <t>臺灣土地銀行文山分行</t>
@@ -887,7 +893,7 @@
         <v>26</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>28</v>
@@ -940,7 +946,7 @@
         <v>35</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>28</v>
@@ -993,7 +999,7 @@
         <v>26</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>28</v>
@@ -1038,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -1079,7 +1085,7 @@
         <v>32</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C2" s="2">
         <v>1997</v>
@@ -1088,7 +1094,7 @@
         <v>21</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>24</v>
@@ -1097,7 +1103,7 @@
         <v>26</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>28</v>
@@ -1133,13 +1139,13 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>21</v>
@@ -1153,13 +1159,13 @@
         <v>46</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>21</v>
@@ -1173,13 +1179,13 @@
         <v>47</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>40</v>
-      </c>
       <c r="D3" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>21</v>
@@ -1193,13 +1199,13 @@
         <v>48</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>21</v>
@@ -1213,13 +1219,13 @@
         <v>49</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>21</v>
@@ -1233,13 +1239,13 @@
         <v>50</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>20</v>
@@ -1253,13 +1259,13 @@
         <v>51</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>20</v>
@@ -1273,13 +1279,13 @@
         <v>52</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>20</v>
@@ -1293,13 +1299,13 @@
         <v>53</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>20</v>
@@ -1313,13 +1319,13 @@
         <v>54</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>20</v>
@@ -1333,13 +1339,13 @@
         <v>55</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>20</v>
@@ -1353,13 +1359,13 @@
         <v>56</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>20</v>
@@ -1373,13 +1379,13 @@
         <v>57</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>21</v>
@@ -1393,13 +1399,13 @@
         <v>58</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>21</v>
@@ -1413,13 +1419,13 @@
         <v>59</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>21</v>
@@ -1433,13 +1439,13 @@
         <v>60</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>20</v>
@@ -1469,13 +1475,13 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>15</v>
@@ -1507,7 +1513,7 @@
         <v>67</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>21</v>
@@ -1519,13 +1525,13 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G2" s="2">
         <v>40</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>28</v>
@@ -1551,7 +1557,7 @@
         <v>68</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>21</v>
@@ -1563,13 +1569,13 @@
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G3" s="2">
         <v>500000</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>28</v>
@@ -1595,7 +1601,7 @@
         <v>69</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>21</v>
@@ -1607,13 +1613,13 @@
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G4" s="2">
         <v>30000</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>28</v>
@@ -1639,7 +1645,7 @@
         <v>70</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>21</v>
@@ -1651,13 +1657,13 @@
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G5" s="2">
         <v>200000</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>28</v>
@@ -1683,7 +1689,7 @@
         <v>71</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>21</v>
@@ -1695,13 +1701,13 @@
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G6" s="2">
         <v>435000</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>28</v>
@@ -1727,7 +1733,7 @@
         <v>73</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>21</v>
@@ -1739,13 +1745,13 @@
         <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G7" s="2">
         <v>1810740</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>28</v>
@@ -1771,7 +1777,7 @@
         <v>74</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>21</v>
@@ -1783,13 +1789,13 @@
         <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G8" s="2">
         <v>200270</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>28</v>
@@ -1815,7 +1821,7 @@
         <v>75</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>21</v>
@@ -1827,13 +1833,13 @@
         <v>10</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G9" s="2">
         <v>609600</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I9" s="2" t="s">
         <v>28</v>
@@ -1859,7 +1865,7 @@
         <v>76</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>21</v>
@@ -1871,13 +1877,13 @@
         <v>10</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G10" s="2">
         <v>782980</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I10" s="2" t="s">
         <v>28</v>
@@ -1903,7 +1909,7 @@
         <v>77</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>21</v>
@@ -1915,13 +1921,13 @@
         <v>10</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G11" s="2">
         <v>338950</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I11" s="2" t="s">
         <v>28</v>
@@ -1947,7 +1953,7 @@
         <v>78</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>21</v>
@@ -1959,13 +1965,13 @@
         <v>10</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G12" s="2">
         <v>240000</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I12" s="2" t="s">
         <v>28</v>
@@ -1991,7 +1997,7 @@
         <v>79</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>21</v>
@@ -2003,13 +2009,13 @@
         <v>10</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G13" s="2">
         <v>8740</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I13" s="2" t="s">
         <v>28</v>
@@ -2045,16 +2051,16 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F1" s="1"/>
     </row>
@@ -2063,16 +2069,16 @@
         <v>96</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F2" s="2"/>
     </row>
@@ -2081,19 +2087,19 @@
         <v>97</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -2111,10 +2117,10 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>20</v>
@@ -2125,10 +2131,10 @@
         <v>103</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>20</v>
@@ -2139,10 +2145,10 @@
         <v>104</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>20</v>

--- a/legislator/property/output/normal/賴士葆_2011-11-23_財產申報表_tmp2bc41.xlsx
+++ b/legislator/property/output/normal/賴士葆_2011-11-23_財產申報表_tmp2bc41.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="91">
   <si>
     <t>name</t>
   </si>
@@ -145,67 +145,76 @@
     <t>car</t>
   </si>
   <si>
+    <t>bank</t>
+  </si>
+  <si>
+    <t>deposit_type</t>
+  </si>
+  <si>
+    <t>currency</t>
+  </si>
+  <si>
     <t>臺灣土地銀行文山分行</t>
   </si>
   <si>
+    <t>台北富邦商業銀行和平分行</t>
+  </si>
+  <si>
+    <t>元大商業銀行台北分行</t>
+  </si>
+  <si>
+    <t>第一商業銀行信義分行</t>
+  </si>
+  <si>
+    <t>合作金庫商業銀行西門支庫</t>
+  </si>
+  <si>
+    <t>合作金庫商業銀行東門支庫</t>
+  </si>
+  <si>
+    <t>合作金庫商業銀行大安支庫</t>
+  </si>
+  <si>
+    <t>台北富邦商業銀行南門分行</t>
+  </si>
+  <si>
+    <t>台新國際商業銀行信義分行</t>
+  </si>
+  <si>
+    <t>中華郵政股份有限公司台北青田郵局</t>
+  </si>
+  <si>
+    <t>臺灣銀行城中分行</t>
+  </si>
+  <si>
+    <t>中華郵政股份有限公司</t>
+  </si>
+  <si>
+    <t>慶豐商業銀行</t>
+  </si>
+  <si>
+    <t>台中第三信用合作社</t>
+  </si>
+  <si>
     <t>活期儲蓄存款</t>
   </si>
   <si>
+    <t>支票存款</t>
+  </si>
+  <si>
+    <t>活期存款</t>
+  </si>
+  <si>
     <t>新臺幣</t>
   </si>
   <si>
-    <t>台北富邦商業銀行和平分行</t>
-  </si>
-  <si>
-    <t>元大商業銀行台北分行</t>
-  </si>
-  <si>
-    <t>第一商業銀行信義分行</t>
-  </si>
-  <si>
-    <t>合作金庫商業銀行西門支庫</t>
-  </si>
-  <si>
-    <t>合作金庫商業銀行東門支庫</t>
-  </si>
-  <si>
-    <t>合作金庫商業銀行大安支庫</t>
-  </si>
-  <si>
-    <t>台北富邦商業銀行南門分行</t>
-  </si>
-  <si>
-    <t>台新國際商業銀行信義分行</t>
-  </si>
-  <si>
-    <t>中華郵政股份有限公司台北青田郵局</t>
-  </si>
-  <si>
-    <t>臺灣銀行城中分行</t>
-  </si>
-  <si>
-    <t>中華郵政股份有限公司</t>
-  </si>
-  <si>
-    <t>慶豐商業銀行</t>
-  </si>
-  <si>
-    <t>台中第三信用合作社</t>
-  </si>
-  <si>
-    <t>支票存款</t>
-  </si>
-  <si>
-    <t>活期存款</t>
+    <t>deposit</t>
   </si>
   <si>
     <t>quantity</t>
   </si>
   <si>
     <t>face_value</t>
-  </si>
-  <si>
-    <t>currency</t>
   </si>
   <si>
     <t>台化</t>
@@ -1131,13 +1140,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:13">
       <c r="B1" s="1" t="s">
         <v>41</v>
       </c>
@@ -1148,24 +1157,45 @@
         <v>43</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F1" s="1">
-        <v>443903</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>46</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>21</v>
@@ -1173,19 +1203,40 @@
       <c r="F2" s="2">
         <v>443903</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="G2" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K2" s="2">
+        <v>866</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M2" s="2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>47</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>21</v>
@@ -1193,19 +1244,40 @@
       <c r="F3" s="2">
         <v>451912</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="G3" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K3" s="2">
+        <v>866</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M3" s="2">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>48</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>21</v>
@@ -1213,19 +1285,40 @@
       <c r="F4" s="2">
         <v>1052829</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="G4" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K4" s="2">
+        <v>866</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M4" s="2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>49</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>21</v>
@@ -1233,19 +1326,40 @@
       <c r="F5" s="2">
         <v>464399</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K5" s="2">
+        <v>866</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M5" s="2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>50</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>20</v>
@@ -1253,19 +1367,40 @@
       <c r="F6" s="2">
         <v>274</v>
       </c>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="G6" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K6" s="2">
+        <v>866</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M6" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>51</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>20</v>
@@ -1273,19 +1408,40 @@
       <c r="F7" s="2">
         <v>749</v>
       </c>
-    </row>
-    <row r="8" spans="1:6">
+      <c r="G7" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K7" s="2">
+        <v>866</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M7" s="2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>52</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>20</v>
@@ -1293,19 +1449,40 @@
       <c r="F8" s="2">
         <v>14197</v>
       </c>
-    </row>
-    <row r="9" spans="1:6">
+      <c r="G8" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K8" s="2">
+        <v>866</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M8" s="2">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>53</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>20</v>
@@ -1313,19 +1490,40 @@
       <c r="F9" s="2">
         <v>3230954</v>
       </c>
-    </row>
-    <row r="10" spans="1:6">
+      <c r="G9" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K9" s="2">
+        <v>866</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M9" s="2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>54</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>20</v>
@@ -1333,19 +1531,40 @@
       <c r="F10" s="2">
         <v>314</v>
       </c>
-    </row>
-    <row r="11" spans="1:6">
+      <c r="G10" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K10" s="2">
+        <v>866</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M10" s="2">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>55</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>20</v>
@@ -1353,19 +1572,40 @@
       <c r="F11" s="2">
         <v>366699</v>
       </c>
-    </row>
-    <row r="12" spans="1:6">
+      <c r="G11" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K11" s="2">
+        <v>866</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M11" s="2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>56</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>20</v>
@@ -1373,19 +1613,40 @@
       <c r="F12" s="2">
         <v>949</v>
       </c>
-    </row>
-    <row r="13" spans="1:6">
+      <c r="G12" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K12" s="2">
+        <v>866</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M12" s="2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>57</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>21</v>
@@ -1393,19 +1654,40 @@
       <c r="F13" s="2">
         <v>432627</v>
       </c>
-    </row>
-    <row r="14" spans="1:6">
+      <c r="G13" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K13" s="2">
+        <v>866</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M13" s="2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>58</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>21</v>
@@ -1413,19 +1695,40 @@
       <c r="F14" s="2">
         <v>23480</v>
       </c>
-    </row>
-    <row r="15" spans="1:6">
+      <c r="G14" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K14" s="2">
+        <v>866</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M14" s="2">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>59</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>21</v>
@@ -1433,25 +1736,67 @@
       <c r="F15" s="2">
         <v>115</v>
       </c>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="G15" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K15" s="2">
+        <v>866</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M15" s="2">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>60</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F16" s="2">
         <v>3827</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K16" s="2">
+        <v>866</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M16" s="2">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -1475,13 +1820,13 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>15</v>
@@ -1513,7 +1858,7 @@
         <v>67</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>21</v>
@@ -1525,13 +1870,13 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="G2" s="2">
         <v>40</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>28</v>
@@ -1557,7 +1902,7 @@
         <v>68</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>21</v>
@@ -1569,13 +1914,13 @@
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="G3" s="2">
         <v>500000</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>28</v>
@@ -1601,7 +1946,7 @@
         <v>69</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>21</v>
@@ -1613,13 +1958,13 @@
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="G4" s="2">
         <v>30000</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>28</v>
@@ -1645,7 +1990,7 @@
         <v>70</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>21</v>
@@ -1657,13 +2002,13 @@
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="G5" s="2">
         <v>200000</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>28</v>
@@ -1689,7 +2034,7 @@
         <v>71</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>21</v>
@@ -1701,13 +2046,13 @@
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="G6" s="2">
         <v>435000</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>28</v>
@@ -1733,7 +2078,7 @@
         <v>73</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>21</v>
@@ -1745,13 +2090,13 @@
         <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="G7" s="2">
         <v>1810740</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>28</v>
@@ -1777,7 +2122,7 @@
         <v>74</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>21</v>
@@ -1789,13 +2134,13 @@
         <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="G8" s="2">
         <v>200270</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>28</v>
@@ -1821,7 +2166,7 @@
         <v>75</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>21</v>
@@ -1833,13 +2178,13 @@
         <v>10</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="G9" s="2">
         <v>609600</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="I9" s="2" t="s">
         <v>28</v>
@@ -1865,7 +2210,7 @@
         <v>76</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>21</v>
@@ -1877,13 +2222,13 @@
         <v>10</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="G10" s="2">
         <v>782980</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="I10" s="2" t="s">
         <v>28</v>
@@ -1909,7 +2254,7 @@
         <v>77</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>21</v>
@@ -1921,13 +2266,13 @@
         <v>10</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="G11" s="2">
         <v>338950</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="I11" s="2" t="s">
         <v>28</v>
@@ -1953,7 +2298,7 @@
         <v>78</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>21</v>
@@ -1965,13 +2310,13 @@
         <v>10</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="G12" s="2">
         <v>240000</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="I12" s="2" t="s">
         <v>28</v>
@@ -1997,7 +2342,7 @@
         <v>79</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>21</v>
@@ -2009,13 +2354,13 @@
         <v>10</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="G13" s="2">
         <v>8740</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="I13" s="2" t="s">
         <v>28</v>
@@ -2051,16 +2396,16 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="F1" s="1"/>
     </row>
@@ -2069,16 +2414,16 @@
         <v>96</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="F2" s="2"/>
     </row>
@@ -2087,19 +2432,19 @@
         <v>97</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -2117,10 +2462,10 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>20</v>
@@ -2131,10 +2476,10 @@
         <v>103</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>20</v>
@@ -2145,10 +2490,10 @@
         <v>104</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>20</v>

--- a/legislator/property/output/normal/賴士葆_2011-11-23_財產申報表_tmp2bc41.xlsx
+++ b/legislator/property/output/normal/賴士葆_2011-11-23_財產申報表_tmp2bc41.xlsx
@@ -12,15 +12,14 @@
     <sheet name="汽車" sheetId="3" r:id="rId3"/>
     <sheet name="存款" sheetId="4" r:id="rId4"/>
     <sheet name="股票" sheetId="5" r:id="rId5"/>
-    <sheet name="其他有價證券" sheetId="6" r:id="rId6"/>
-    <sheet name="保險" sheetId="7" r:id="rId7"/>
+    <sheet name="保險" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="82">
   <si>
     <t>name</t>
   </si>
@@ -254,33 +253,6 @@
   </si>
   <si>
     <t>stock</t>
-  </si>
-  <si>
-    <t>(九）珠寶古董字畫及#</t>
-  </si>
-  <si>
-    <t>他具有相當價值之財產（總</t>
-  </si>
-  <si>
-    <t>1額：新臺幣</t>
-  </si>
-  <si>
-    <t>元）</t>
-  </si>
-  <si>
-    <t>財產種類</t>
-  </si>
-  <si>
-    <t>項件</t>
-  </si>
-  <si>
-    <t>所有</t>
-  </si>
-  <si>
-    <t>!入</t>
-  </si>
-  <si>
-    <t>價額</t>
   </si>
   <si>
     <t>富邦人壽</t>
@@ -2388,72 +2360,6 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:6">
-      <c r="B1" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="F1" s="1"/>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="1">
-        <v>96</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="F2" s="2"/>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="1">
-        <v>97</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2462,10 +2368,10 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>20</v>
@@ -2476,10 +2382,10 @@
         <v>103</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>20</v>
@@ -2490,10 +2396,10 @@
         <v>104</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>20</v>

--- a/legislator/property/output/normal/賴士葆_2011-11-23_財產申報表_tmp2bc41.xlsx
+++ b/legislator/property/output/normal/賴士葆_2011-11-23_財產申報表_tmp2bc41.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="84">
   <si>
     <t>name</t>
   </si>
@@ -255,16 +255,22 @@
     <t>stock</t>
   </si>
   <si>
+    <t>company</t>
+  </si>
+  <si>
     <t>富邦人壽</t>
   </si>
   <si>
+    <t>國華人壽</t>
+  </si>
+  <si>
     <t>安泰人壽靈活理財變額保險甲型</t>
   </si>
   <si>
-    <t>國華人壽</t>
-  </si>
-  <si>
     <t>國華人壽終身壽險</t>
+  </si>
+  <si>
+    <t>insurance</t>
   </si>
 </sst>
 </file>
@@ -2360,38 +2366,80 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>78</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>79</v>
+        <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1">
         <v>103</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" s="2">
+        <v>866</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K2" s="2">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="1">
         <v>104</v>
       </c>
@@ -2399,10 +2447,31 @@
         <v>80</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>20</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I3" s="2">
+        <v>866</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K3" s="2">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
